--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.9499616917794748</v>
+        <v>1.075887403236932</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.9556980709736358</v>
+        <v>1.041989089094431</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.9503585716635915</v>
+        <v>1.065029873706663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.9306532945678907</v>
+        <v>1.094404773990106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9887723923810938</v>
+        <v>1.079198333557301</v>
       </c>
     </row>
   </sheetData>
